--- a/samples/TemplateFromExcel.xlsx
+++ b/samples/TemplateFromExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/droberts/2018May13-java-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/droberts/github/xebialabs-community/xlr-template-import-excel-plugin/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Phase</t>
   </si>
@@ -110,12 +110,6 @@
     <t>team2a</t>
   </si>
   <si>
-    <t>1d 2h 3m</t>
-  </si>
-  <si>
-    <t>2d 3h 4m</t>
-  </si>
-  <si>
     <t>user1b</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>team1c</t>
   </si>
   <si>
-    <t>3d 4h 5m</t>
-  </si>
-  <si>
     <t>user1d</t>
   </si>
   <si>
@@ -140,45 +131,27 @@
     <t>4d 5h 6m</t>
   </si>
   <si>
-    <t>5d 6h 7m</t>
-  </si>
-  <si>
     <t>user2b</t>
   </si>
   <si>
     <t>team2b</t>
   </si>
   <si>
-    <t>6d 7h 8m</t>
-  </si>
-  <si>
     <t>user2c</t>
   </si>
   <si>
     <t>team2c</t>
   </si>
   <si>
-    <t>7d 8h 9m</t>
-  </si>
-  <si>
-    <t>user2d</t>
-  </si>
-  <si>
     <t>team2d</t>
   </si>
   <si>
-    <t>8d 9h 10m</t>
-  </si>
-  <si>
     <t>user2e</t>
   </si>
   <si>
     <t>team2e</t>
   </si>
   <si>
-    <t>9d 10h 11m</t>
-  </si>
-  <si>
     <t>user3a</t>
   </si>
   <si>
@@ -194,18 +167,9 @@
     <t>team3b</t>
   </si>
   <si>
-    <t>11d 12h 13m</t>
-  </si>
-  <si>
-    <t>12d 13h 14m</t>
-  </si>
-  <si>
     <t>Task 3D</t>
   </si>
   <si>
-    <t>user3d</t>
-  </si>
-  <si>
     <t>team3d</t>
   </si>
   <si>
@@ -218,9 +182,6 @@
     <t>Description 1B</t>
   </si>
   <si>
-    <t>Description 1C</t>
-  </si>
-  <si>
     <t>Description 1D</t>
   </si>
   <si>
@@ -239,9 +200,6 @@
     <t>Description 2E</t>
   </si>
   <si>
-    <t>Description 3A</t>
-  </si>
-  <si>
     <t>Description 3B</t>
   </si>
   <si>
@@ -258,6 +216,27 @@
   </si>
   <si>
     <t>jenkins.Build</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>7d</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>9m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -574,11 +553,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -588,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -611,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -620,10 +600,10 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -631,19 +611,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -651,16 +631,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -668,16 +645,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -688,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -697,10 +674,10 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -708,19 +685,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -728,33 +705,27 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -762,16 +733,13 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,19 +750,16 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -802,19 +767,19 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,27 +793,24 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
